--- a/User Stories-Acceptance Criteria-Test Cases/User Stories - Code Avengers - Book Buddy.xlsx
+++ b/User Stories-Acceptance Criteria-Test Cases/User Stories - Code Avengers - Book Buddy.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>Login/Registration</t>
-  </si>
-  <si>
-    <t>As a passionate reader, I want to be able to register for an account with third party providers (Facebook, Google, etc), so that I can access the application and not have to remember another password.</t>
   </si>
   <si>
     <t>As a busy reader, I want to be able to reset my password if I forget it, so that I can regain access to my account.</t>
@@ -252,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -292,9 +289,6 @@
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="2" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -1204,7 +1198,7 @@
       <c r="T21" s="16"/>
       <c r="U21" s="16"/>
     </row>
-    <row r="22" ht="34.5" customHeight="1">
+    <row r="22" ht="24.75" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="12">
         <v>20.0</v>
@@ -1219,7 +1213,7 @@
         <v>27</v>
       </c>
       <c r="H22" s="15">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
@@ -1235,7 +1229,7 @@
       <c r="T22" s="16"/>
       <c r="U22" s="16"/>
     </row>
-    <row r="23" ht="24.75" customHeight="1">
+    <row r="23" ht="27.75" customHeight="1">
       <c r="A23" s="11"/>
       <c r="B23" s="12">
         <v>21.0</v>
@@ -1245,7 +1239,7 @@
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="8"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="14" t="s">
         <v>27</v>
       </c>
@@ -1266,23 +1260,15 @@
       <c r="T23" s="16"/>
       <c r="U23" s="16"/>
     </row>
-    <row r="24" ht="27.75" customHeight="1">
+    <row r="24" ht="24.75" customHeight="1">
       <c r="A24" s="11"/>
-      <c r="B24" s="17">
-        <v>22.0</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" s="15">
-        <v>2.0</v>
-      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="19"/>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
@@ -1297,51 +1283,51 @@
       <c r="T24" s="16"/>
       <c r="U24" s="16"/>
     </row>
-    <row r="25" ht="24.75" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-    </row>
-    <row r="26" ht="12.0" customHeight="1">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
+    <row r="25" ht="12.0" customHeight="1">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
     </row>
     <row r="27">
       <c r="A27" s="11"/>
@@ -23883,31 +23869,8 @@
       <c r="T1006" s="16"/>
       <c r="U1006" s="16"/>
     </row>
-    <row r="1007">
-      <c r="A1007" s="11"/>
-      <c r="B1007" s="11"/>
-      <c r="C1007" s="11"/>
-      <c r="D1007" s="11"/>
-      <c r="E1007" s="11"/>
-      <c r="F1007" s="16"/>
-      <c r="G1007" s="16"/>
-      <c r="H1007" s="16"/>
-      <c r="I1007" s="16"/>
-      <c r="J1007" s="16"/>
-      <c r="K1007" s="16"/>
-      <c r="L1007" s="16"/>
-      <c r="M1007" s="16"/>
-      <c r="N1007" s="16"/>
-      <c r="O1007" s="16"/>
-      <c r="P1007" s="16"/>
-      <c r="Q1007" s="16"/>
-      <c r="R1007" s="16"/>
-      <c r="S1007" s="16"/>
-      <c r="T1007" s="16"/>
-      <c r="U1007" s="16"/>
-    </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="23">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="C3:F3"/>
@@ -23924,7 +23887,6 @@
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C17:F17"/>
@@ -23933,17 +23895,17 @@
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C21:F21"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3:G24">
+  <conditionalFormatting sqref="G3:G23">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH(("Low"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G24">
+  <conditionalFormatting sqref="G3:G23">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH(("Medium"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G24">
+  <conditionalFormatting sqref="G3:G23">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH(("High"),(G3))))</formula>
     </cfRule>
